--- a/biology/Botanique/Panicum_sumatrense/Panicum_sumatrense.xlsx
+++ b/biology/Botanique/Panicum_sumatrense/Panicum_sumatrense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Panicum sumatrense, le petit millet, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Asie.
 Ce sont des plantes herbacées annuelles, aux tiges (chaumes) dressées et aux inflorescences en panicules.
@@ -512,17 +524,19 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Panicum sumatrense est une plante herbacée annuelle aux tiges dressées de 30 à 10 cm de long.
-Les feuilles ont un limbe allongé, arrondi à la base, à l'apex acuminé, de 10 à 40 cm de long sur 5 à 15 mm de large, avec une ligule membraneuse ciliée de 0,6 à 1,1 mm de long[2].
+Les feuilles ont un limbe allongé, arrondi à la base, à l'apex acuminé, de 10 à 40 cm de long sur 5 à 15 mm de large, avec une ligule membraneuse ciliée de 0,6 à 1,1 mm de long.
 L'inflorescence est une panicule contractée, oblongue, de 5 à 40 cm de long sur 1 à 5 mm de large.
 Les épillets fertiles, solitaires, elliptiques, comprimés dorsalement, de 2,5 à 3,5 mm de long, sont pédicellés et comprennent un fleuron basal stérile et un fleuron fertile sans extension du rachillet. A maturité, les épillets persistent sur la plante.
 Ils sont sous-tendus par deux glumes, ovales, membraneuses, dissemblables.
 La glume inférieure, de 0,7 à 1,2 mm de long, atteint un quart à un tiers de la longueur de l'épillet et présente de 1 à 3 nervures.
 La glume supérieure, aussi longue que l'épillet, a de 11 à 15 nervures.
 Les fleurons fertiles présentent trois anthères de 1,5 mm de long.
-Le fruit est un caryopse au péricarpe adhérent, de 1,8 à 1,9 mm de long[2].
+Le fruit est un caryopse au péricarpe adhérent, de 1,8 à 1,9 mm de long.
 </t>
         </is>
       </c>
@@ -551,10 +565,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Panicum sumatrense a une aire de répartition s'étendant en Asie tempérée ou tropicale : Chine (Guizhou,  Xizang, Yunnan[3]) Taïwan, sous-continent indien (Inde, Népal, Pakistan, Sri Lanka), Birmanie, Thaïlande, Malaisie, Indonésie et Philippines.
-L'espèce s'y rencontre à l'état cultivé ou naturalisé[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Panicum sumatrense a une aire de répartition s'étendant en Asie tempérée ou tropicale : Chine (Guizhou,  Xizang, Yunnan) Taïwan, sous-continent indien (Inde, Népal, Pakistan, Sri Lanka), Birmanie, Thaïlande, Malaisie, Indonésie et Philippines.
+L'espèce s'y rencontre à l'état cultivé ou naturalisé.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (18 mars 2018)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (18 mars 2018) :
 Panicum sumatrense subsp. psilopodium (Trin.) de Wet</t>
         </is>
       </c>
